--- a/data/Freiss_Japanese/Freiss_1_final.xlsx
+++ b/data/Freiss_Japanese/Freiss_1_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/75f013b5cc6ff873/データセット/研究協力/比較用/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_AD4D066CA252ABDACC10486079D5D40472EEDF53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61135F19-C191-4752-A265-F5F7EC61C385}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="11_AD4D066CA252ABDACC10486079D5D40472EEDF53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0261CBFA-83EF-4815-AAE7-6CFB74E4EC2C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2493,9 +2493,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="51" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AM193" sqref="AM193"/>
+    <sheetView tabSelected="1" zoomScale="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="AD2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE2" s="18">
         <v>0</v>
@@ -2696,7 +2696,9 @@
       <c r="AK2" s="3"/>
       <c r="AL2" s="3"/>
       <c r="AM2" s="4"/>
-      <c r="AN2" s="3"/>
+      <c r="AN2" s="3">
+        <v>0</v>
+      </c>
       <c r="AO2" s="18"/>
     </row>
     <row r="3" spans="1:41" ht="145.19999999999999">
@@ -3113,7 +3115,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="3">
         <v>1</v>
@@ -3134,9 +3136,7 @@
       <c r="R7" s="3">
         <v>0</v>
       </c>
-      <c r="S7" s="4">
-        <v>0</v>
-      </c>
+      <c r="S7" s="4"/>
       <c r="T7" s="3">
         <v>0</v>
       </c>
@@ -3154,9 +3154,7 @@
       <c r="AB7" s="3">
         <v>1</v>
       </c>
-      <c r="AC7" s="4">
-        <v>1</v>
-      </c>
+      <c r="AC7" s="4"/>
       <c r="AD7" s="3">
         <v>1</v>
       </c>
@@ -3172,9 +3170,7 @@
       <c r="AL7" s="3">
         <v>-1</v>
       </c>
-      <c r="AM7" s="4">
-        <v>-1</v>
-      </c>
+      <c r="AM7" s="4"/>
       <c r="AN7" s="3">
         <v>0</v>
       </c>
@@ -3233,7 +3229,7 @@
         <v>-1</v>
       </c>
       <c r="T8" s="3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="U8" s="18">
         <v>-1</v>
@@ -3332,9 +3328,7 @@
       <c r="AB9" s="3">
         <v>0</v>
       </c>
-      <c r="AC9" s="4">
-        <v>0</v>
-      </c>
+      <c r="AC9" s="4"/>
       <c r="AD9" s="3">
         <v>0</v>
       </c>
@@ -3400,7 +3394,7 @@
         <v>2</v>
       </c>
       <c r="S10" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T10" s="3">
         <v>2</v>
@@ -3441,7 +3435,7 @@
       </c>
       <c r="AK10" s="3"/>
       <c r="AL10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10" s="4">
         <v>1</v>
@@ -3519,9 +3513,7 @@
         <v>1</v>
       </c>
       <c r="AA11" s="3"/>
-      <c r="AB11" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB11" s="3"/>
       <c r="AC11" s="4">
         <v>1</v>
       </c>
@@ -3539,9 +3531,7 @@
         <v>1</v>
       </c>
       <c r="AK11" s="3"/>
-      <c r="AL11" s="3">
-        <v>1</v>
-      </c>
+      <c r="AL11" s="3"/>
       <c r="AM11" s="4">
         <v>1</v>
       </c>
@@ -3576,7 +3566,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
         <v>1</v>
@@ -3595,11 +3585,9 @@
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="S12" s="4">
-        <v>-1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S12" s="4"/>
       <c r="T12" s="3">
         <v>-1</v>
       </c>
@@ -3617,9 +3605,7 @@
       <c r="AB12" s="3">
         <v>0</v>
       </c>
-      <c r="AC12" s="4">
-        <v>0</v>
-      </c>
+      <c r="AC12" s="4"/>
       <c r="AD12" s="3">
         <v>0</v>
       </c>
@@ -3682,7 +3668,7 @@
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="4">
         <v>-1</v>
@@ -3797,7 +3783,7 @@
         <v>0</v>
       </c>
       <c r="AD14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE14" s="18">
         <v>0</v>
@@ -3810,7 +3796,9 @@
       <c r="AK14" s="3"/>
       <c r="AL14" s="3"/>
       <c r="AM14" s="4"/>
-      <c r="AN14" s="3"/>
+      <c r="AN14" s="3">
+        <v>0</v>
+      </c>
       <c r="AO14" s="18"/>
     </row>
     <row r="15" spans="1:41" ht="79.2">
@@ -3858,7 +3846,7 @@
       </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S15" s="4">
         <v>2</v>
@@ -3886,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="AD15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15" s="18">
         <v>0</v>
@@ -3899,7 +3887,9 @@
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
       <c r="AM15" s="4"/>
-      <c r="AN15" s="3"/>
+      <c r="AN15" s="3">
+        <v>1</v>
+      </c>
       <c r="AO15" s="18"/>
     </row>
     <row r="16" spans="1:41" ht="132">
@@ -4068,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="AD17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE17" s="18">
         <v>0</v>
@@ -4081,7 +4071,9 @@
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
       <c r="AM17" s="4"/>
-      <c r="AN17" s="3"/>
+      <c r="AN17" s="3">
+        <v>1</v>
+      </c>
       <c r="AO17" s="18"/>
     </row>
     <row r="18" spans="1:41" ht="224.4">
@@ -4229,7 +4221,7 @@
         <v>2</v>
       </c>
       <c r="S19" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T19" s="3">
         <v>2</v>
@@ -4446,7 +4438,7 @@
       </c>
       <c r="AA21" s="3"/>
       <c r="AB21" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="4">
         <v>1</v>
@@ -4465,14 +4457,12 @@
         <v>1</v>
       </c>
       <c r="AK21" s="3"/>
-      <c r="AL21" s="3">
-        <v>0</v>
-      </c>
+      <c r="AL21" s="3"/>
       <c r="AM21" s="4">
         <v>0</v>
       </c>
       <c r="AN21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO21" s="18">
         <v>0</v>
@@ -4523,7 +4513,7 @@
       </c>
       <c r="Q22" s="3"/>
       <c r="R22" s="3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S22" s="4">
         <v>-1</v>
@@ -4953,7 +4943,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>1</v>
@@ -4974,9 +4964,7 @@
       <c r="R27" s="3">
         <v>2</v>
       </c>
-      <c r="S27" s="4">
-        <v>2</v>
-      </c>
+      <c r="S27" s="4"/>
       <c r="T27" s="3">
         <v>2</v>
       </c>
@@ -4994,9 +4982,7 @@
       <c r="AB27" s="3">
         <v>0</v>
       </c>
-      <c r="AC27" s="4">
-        <v>0</v>
-      </c>
+      <c r="AC27" s="4"/>
       <c r="AD27" s="3">
         <v>0</v>
       </c>
@@ -5299,7 +5285,7 @@
         <v>0</v>
       </c>
       <c r="AN30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO30" s="18">
         <v>0</v>
@@ -5372,7 +5358,7 @@
       </c>
       <c r="AA31" s="3"/>
       <c r="AB31" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC31" s="4">
         <v>1</v>
@@ -5391,11 +5377,9 @@
         <v>1</v>
       </c>
       <c r="AK31" s="3"/>
-      <c r="AL31" s="3">
-        <v>1</v>
-      </c>
+      <c r="AL31" s="3"/>
       <c r="AM31" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN31" s="3">
         <v>1</v>
@@ -5431,7 +5415,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="17">
         <v>1</v>
@@ -5452,9 +5436,7 @@
       <c r="S32" s="4">
         <v>2</v>
       </c>
-      <c r="T32" s="3">
-        <v>2</v>
-      </c>
+      <c r="T32" s="3"/>
       <c r="U32" s="18">
         <v>2</v>
       </c>
@@ -5472,9 +5454,7 @@
       <c r="AC32" s="4">
         <v>1</v>
       </c>
-      <c r="AD32" s="3">
-        <v>1</v>
-      </c>
+      <c r="AD32" s="3"/>
       <c r="AE32" s="18">
         <v>1</v>
       </c>
@@ -5488,9 +5468,7 @@
       <c r="AM32" s="4">
         <v>0</v>
       </c>
-      <c r="AN32" s="3">
-        <v>0</v>
-      </c>
+      <c r="AN32" s="3"/>
       <c r="AO32" s="18">
         <v>0</v>
       </c>
@@ -5770,7 +5748,7 @@
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="4">
         <v>0</v>
@@ -5789,7 +5767,9 @@
       <c r="O37" s="4"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
+      <c r="R37" s="3">
+        <v>2</v>
+      </c>
       <c r="S37" s="4"/>
       <c r="T37" s="3"/>
       <c r="U37" s="18"/>
@@ -5799,7 +5779,9 @@
       <c r="Y37" s="4"/>
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
-      <c r="AB37" s="3"/>
+      <c r="AB37" s="3">
+        <v>0</v>
+      </c>
       <c r="AC37" s="4"/>
       <c r="AD37" s="3"/>
       <c r="AE37" s="18"/>
@@ -5895,7 +5877,7 @@
         <v>1</v>
       </c>
       <c r="AN38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO38" s="18">
         <v>1</v>
@@ -6252,7 +6234,7 @@
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="3">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="S43" s="4">
         <v>2</v>
@@ -6317,7 +6299,7 @@
         <v>1</v>
       </c>
       <c r="J44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="17"/>
       <c r="L44" s="13"/>
@@ -6334,9 +6316,7 @@
       <c r="S44" s="4">
         <v>2</v>
       </c>
-      <c r="T44" s="3">
-        <v>2</v>
-      </c>
+      <c r="T44" s="3"/>
       <c r="U44" s="18">
         <v>2</v>
       </c>
@@ -6349,14 +6329,12 @@
       <c r="Z44" s="3"/>
       <c r="AA44" s="3"/>
       <c r="AB44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC44" s="4">
         <v>1</v>
       </c>
-      <c r="AD44" s="3">
-        <v>1</v>
-      </c>
+      <c r="AD44" s="3"/>
       <c r="AE44" s="18">
         <v>1</v>
       </c>
@@ -6370,15 +6348,11 @@
         <v>1</v>
       </c>
       <c r="AK44" s="3"/>
-      <c r="AL44" s="3">
-        <v>1</v>
-      </c>
+      <c r="AL44" s="3"/>
       <c r="AM44" s="4">
         <v>1</v>
       </c>
-      <c r="AN44" s="3">
-        <v>1</v>
-      </c>
+      <c r="AN44" s="3"/>
       <c r="AO44" s="18">
         <v>1</v>
       </c>
@@ -6527,7 +6501,7 @@
         <v>2</v>
       </c>
       <c r="T46" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U46" s="18">
         <v>2</v>
@@ -6895,7 +6869,7 @@
       </c>
       <c r="AK50" s="3"/>
       <c r="AL50" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM50" s="4">
         <v>1</v>
@@ -6997,7 +6971,7 @@
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" s="4">
         <v>0</v>
@@ -7018,7 +6992,9 @@
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
+      <c r="R52" s="3">
+        <v>2</v>
+      </c>
       <c r="S52" s="4"/>
       <c r="T52" s="3"/>
       <c r="U52" s="18"/>
@@ -7030,7 +7006,9 @@
       </c>
       <c r="Z52" s="3"/>
       <c r="AA52" s="3"/>
-      <c r="AB52" s="3"/>
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
       <c r="AC52" s="4"/>
       <c r="AD52" s="3"/>
       <c r="AE52" s="18"/>
@@ -7064,7 +7042,7 @@
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" s="4">
         <v>1</v>
@@ -7087,9 +7065,7 @@
         <v>-1</v>
       </c>
       <c r="Q53" s="3"/>
-      <c r="R53" s="3">
-        <v>2</v>
-      </c>
+      <c r="R53" s="3"/>
       <c r="S53" s="4">
         <v>2</v>
       </c>
@@ -7109,9 +7085,7 @@
         <v>1</v>
       </c>
       <c r="AA53" s="3"/>
-      <c r="AB53" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB53" s="3"/>
       <c r="AC53" s="4">
         <v>1</v>
       </c>
@@ -7129,9 +7103,7 @@
         <v>1</v>
       </c>
       <c r="AK53" s="3"/>
-      <c r="AL53" s="3">
-        <v>0</v>
-      </c>
+      <c r="AL53" s="3"/>
       <c r="AM53" s="4">
         <v>0</v>
       </c>
@@ -7302,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="AN55" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO55" s="18">
         <v>0</v>
@@ -7659,7 +7631,7 @@
         <v>1</v>
       </c>
       <c r="T60" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U60" s="18">
         <v>1</v>
@@ -7779,7 +7751,9 @@
       <c r="AK61" s="4"/>
       <c r="AL61" s="3"/>
       <c r="AM61" s="4"/>
-      <c r="AN61" s="4"/>
+      <c r="AN61" s="4">
+        <v>-1</v>
+      </c>
       <c r="AO61" s="18" t="s">
         <v>431</v>
       </c>
@@ -8322,7 +8296,7 @@
       </c>
       <c r="AK67" s="4"/>
       <c r="AL67" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM67" s="4">
         <v>0</v>
@@ -8664,7 +8638,7 @@
         <v>0</v>
       </c>
       <c r="T71" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U71" s="18">
         <v>0</v>
@@ -8755,7 +8729,7 @@
         <v>-1</v>
       </c>
       <c r="T72" s="4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="U72" s="18">
         <v>-1</v>
@@ -9189,7 +9163,7 @@
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" s="4">
         <v>0</v>
@@ -9208,7 +9182,9 @@
       <c r="O78" s="4"/>
       <c r="P78" s="4"/>
       <c r="Q78" s="4"/>
-      <c r="R78" s="3"/>
+      <c r="R78" s="3">
+        <v>2</v>
+      </c>
       <c r="S78" s="4"/>
       <c r="T78" s="4"/>
       <c r="U78" s="18"/>
@@ -9218,7 +9194,9 @@
       <c r="Y78" s="4"/>
       <c r="Z78" s="4"/>
       <c r="AA78" s="4"/>
-      <c r="AB78" s="3"/>
+      <c r="AB78" s="3">
+        <v>1</v>
+      </c>
       <c r="AC78" s="4"/>
       <c r="AD78" s="4"/>
       <c r="AE78" s="18"/>
@@ -9228,7 +9206,9 @@
       <c r="AI78" s="4"/>
       <c r="AJ78" s="4"/>
       <c r="AK78" s="4"/>
-      <c r="AL78" s="3"/>
+      <c r="AL78" s="3">
+        <v>1</v>
+      </c>
       <c r="AM78" s="4"/>
       <c r="AN78" s="4"/>
       <c r="AO78" s="18" t="s">
@@ -9467,7 +9447,7 @@
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" s="4">
         <v>1</v>
@@ -9486,9 +9466,7 @@
       </c>
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
-      <c r="R82" s="3">
-        <v>2</v>
-      </c>
+      <c r="R82" s="3"/>
       <c r="S82" s="4">
         <v>2</v>
       </c>
@@ -9504,9 +9482,7 @@
       </c>
       <c r="Z82" s="4"/>
       <c r="AA82" s="4"/>
-      <c r="AB82" s="3">
-        <v>0</v>
-      </c>
+      <c r="AB82" s="3"/>
       <c r="AC82" s="4">
         <v>0</v>
       </c>
@@ -9590,7 +9566,7 @@
       <c r="Z83" s="4"/>
       <c r="AA83" s="4"/>
       <c r="AB83" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC83" s="4">
         <v>1</v>
@@ -9607,9 +9583,7 @@
       </c>
       <c r="AJ83" s="4"/>
       <c r="AK83" s="4"/>
-      <c r="AL83" s="3">
-        <v>0</v>
-      </c>
+      <c r="AL83" s="3"/>
       <c r="AM83" s="4">
         <v>0</v>
       </c>
@@ -9944,7 +9918,7 @@
         <v>-1</v>
       </c>
       <c r="T87" s="4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="U87" s="18">
         <v>-1</v>
@@ -10985,7 +10959,7 @@
       </c>
       <c r="AK98" s="4"/>
       <c r="AL98" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM98" s="4">
         <v>0</v>
@@ -11140,7 +11114,7 @@
         <v>2</v>
       </c>
       <c r="S100" s="4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="T100" s="4">
         <v>2</v>
@@ -11309,7 +11283,7 @@
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" s="4">
         <v>0</v>
@@ -11328,7 +11302,9 @@
       <c r="O102" s="4"/>
       <c r="P102" s="4"/>
       <c r="Q102" s="4"/>
-      <c r="R102" s="3"/>
+      <c r="R102" s="3">
+        <v>2</v>
+      </c>
       <c r="S102" s="4"/>
       <c r="T102" s="4"/>
       <c r="U102" s="18"/>
@@ -11338,7 +11314,9 @@
       <c r="Y102" s="4"/>
       <c r="Z102" s="4"/>
       <c r="AA102" s="4"/>
-      <c r="AB102" s="3"/>
+      <c r="AB102" s="3">
+        <v>0</v>
+      </c>
       <c r="AC102" s="4"/>
       <c r="AD102" s="4"/>
       <c r="AE102" s="18"/>
@@ -12071,14 +12049,12 @@
       <c r="AJ110" s="4"/>
       <c r="AK110" s="4"/>
       <c r="AL110" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AM110" s="4">
         <v>-1</v>
       </c>
-      <c r="AN110" s="4">
-        <v>0</v>
-      </c>
+      <c r="AN110" s="4"/>
       <c r="AO110" s="18">
         <v>-1</v>
       </c>
@@ -12384,7 +12360,7 @@
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" s="4">
         <v>0</v>
@@ -12405,7 +12381,9 @@
       </c>
       <c r="P115" s="4"/>
       <c r="Q115" s="4"/>
-      <c r="R115" s="3"/>
+      <c r="R115" s="3">
+        <v>2</v>
+      </c>
       <c r="S115" s="4"/>
       <c r="T115" s="4"/>
       <c r="U115" s="18"/>
@@ -12417,7 +12395,9 @@
       </c>
       <c r="Z115" s="4"/>
       <c r="AA115" s="4"/>
-      <c r="AB115" s="3"/>
+      <c r="AB115" s="3">
+        <v>0</v>
+      </c>
       <c r="AC115" s="4"/>
       <c r="AD115" s="4"/>
       <c r="AE115" s="18"/>
@@ -12581,7 +12561,7 @@
         <v>0</v>
       </c>
       <c r="S117" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T117" s="4">
         <v>0</v>
@@ -12754,7 +12734,7 @@
       <c r="P119" s="4"/>
       <c r="Q119" s="4"/>
       <c r="R119" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S119" s="4">
         <v>1</v>
@@ -12922,7 +12902,7 @@
       </c>
       <c r="Q121" s="4"/>
       <c r="R121" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S121" s="4">
         <v>1</v>
@@ -13224,7 +13204,7 @@
       </c>
       <c r="AA125" s="4"/>
       <c r="AB125" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC125" s="4">
         <v>1</v>
@@ -13243,9 +13223,7 @@
         <v>1</v>
       </c>
       <c r="AK125" s="4"/>
-      <c r="AL125" s="3">
-        <v>1</v>
-      </c>
+      <c r="AL125" s="3"/>
       <c r="AM125" s="4">
         <v>1</v>
       </c>
@@ -13679,7 +13657,7 @@
       </c>
       <c r="AA130" s="4"/>
       <c r="AB130" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC130" s="4">
         <v>1</v>
@@ -13698,9 +13676,7 @@
         <v>1</v>
       </c>
       <c r="AK130" s="4"/>
-      <c r="AL130" s="3">
-        <v>1</v>
-      </c>
+      <c r="AL130" s="3"/>
       <c r="AM130" s="4">
         <v>1</v>
       </c>
@@ -13800,7 +13776,7 @@
       </c>
       <c r="AK131" s="3"/>
       <c r="AL131" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM131" s="4">
         <v>0</v>
@@ -14757,7 +14733,7 @@
       </c>
       <c r="AA142" s="3"/>
       <c r="AB142" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC142" s="4">
         <v>1</v>
@@ -14776,9 +14752,7 @@
         <v>1</v>
       </c>
       <c r="AK142" s="3"/>
-      <c r="AL142" s="3">
-        <v>1</v>
-      </c>
+      <c r="AL142" s="3"/>
       <c r="AM142" s="4">
         <v>1</v>
       </c>
@@ -14810,7 +14784,7 @@
       </c>
       <c r="G143" s="3"/>
       <c r="H143" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" s="4">
         <v>1</v>
@@ -14831,9 +14805,7 @@
         <v>-1</v>
       </c>
       <c r="Q143" s="3"/>
-      <c r="R143" s="3">
-        <v>-1</v>
-      </c>
+      <c r="R143" s="3"/>
       <c r="S143" s="4">
         <v>-1</v>
       </c>
@@ -14851,9 +14823,7 @@
         <v>1</v>
       </c>
       <c r="AA143" s="3"/>
-      <c r="AB143" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB143" s="3"/>
       <c r="AC143" s="4">
         <v>1</v>
       </c>
@@ -14871,9 +14841,7 @@
         <v>1</v>
       </c>
       <c r="AK143" s="3"/>
-      <c r="AL143" s="3">
-        <v>1</v>
-      </c>
+      <c r="AL143" s="3"/>
       <c r="AM143" s="4">
         <v>1</v>
       </c>
@@ -15200,7 +15168,7 @@
       <c r="Z147" s="3"/>
       <c r="AA147" s="3"/>
       <c r="AB147" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC147" s="4">
         <v>1</v>
@@ -15213,9 +15181,7 @@
       <c r="AI147" s="4"/>
       <c r="AJ147" s="3"/>
       <c r="AK147" s="3"/>
-      <c r="AL147" s="3">
-        <v>0</v>
-      </c>
+      <c r="AL147" s="3"/>
       <c r="AM147" s="4">
         <v>0</v>
       </c>
@@ -15291,7 +15257,7 @@
       </c>
       <c r="AA148" s="3"/>
       <c r="AB148" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC148" s="4">
         <v>1</v>
@@ -15310,14 +15276,12 @@
         <v>1</v>
       </c>
       <c r="AK148" s="3"/>
-      <c r="AL148" s="3">
-        <v>0</v>
-      </c>
+      <c r="AL148" s="3"/>
       <c r="AM148" s="4">
         <v>0</v>
       </c>
       <c r="AN148" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO148" s="18">
         <v>0</v>
@@ -15374,7 +15338,7 @@
         <v>-1</v>
       </c>
       <c r="T149" s="3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="U149" s="18">
         <v>-1</v>
@@ -15665,7 +15629,7 @@
       </c>
       <c r="Q152" s="3"/>
       <c r="R152" s="3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S152" s="4">
         <v>-1</v>
@@ -16102,7 +16066,7 @@
         <v>0</v>
       </c>
       <c r="AN157" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO157" s="18">
         <v>0</v>
@@ -16212,7 +16176,7 @@
       </c>
       <c r="Q159" s="3"/>
       <c r="R159" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S159" s="4">
         <v>0</v>
@@ -16254,7 +16218,7 @@
       </c>
       <c r="AK159" s="3"/>
       <c r="AL159" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AM159" s="4">
         <v>-1</v>
@@ -16339,7 +16303,7 @@
         <v>0</v>
       </c>
       <c r="AD160" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE160" s="18">
         <v>0</v>
@@ -16352,7 +16316,9 @@
       <c r="AK160" s="3"/>
       <c r="AL160" s="3"/>
       <c r="AM160" s="4"/>
-      <c r="AN160" s="3"/>
+      <c r="AN160" s="3">
+        <v>1</v>
+      </c>
       <c r="AO160" s="18"/>
     </row>
     <row r="161" spans="1:41" ht="118.8">
@@ -16459,7 +16425,7 @@
       </c>
       <c r="G162" s="3"/>
       <c r="H162" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" s="4">
         <v>0</v>
@@ -16478,7 +16444,9 @@
       <c r="O162" s="4"/>
       <c r="P162" s="3"/>
       <c r="Q162" s="3"/>
-      <c r="R162" s="3"/>
+      <c r="R162" s="3">
+        <v>2</v>
+      </c>
       <c r="S162" s="4"/>
       <c r="T162" s="3"/>
       <c r="U162" s="18"/>
@@ -16488,7 +16456,9 @@
       <c r="Y162" s="4"/>
       <c r="Z162" s="3"/>
       <c r="AA162" s="3"/>
-      <c r="AB162" s="3"/>
+      <c r="AB162" s="3">
+        <v>1</v>
+      </c>
       <c r="AC162" s="4"/>
       <c r="AD162" s="3"/>
       <c r="AE162" s="18"/>
@@ -16498,7 +16468,9 @@
       <c r="AI162" s="4"/>
       <c r="AJ162" s="3"/>
       <c r="AK162" s="3"/>
-      <c r="AL162" s="3"/>
+      <c r="AL162" s="3">
+        <v>1</v>
+      </c>
       <c r="AM162" s="4"/>
       <c r="AN162" s="3"/>
       <c r="AO162" s="18"/>
@@ -16730,7 +16702,7 @@
       <c r="AJ165" s="3"/>
       <c r="AK165" s="3"/>
       <c r="AL165" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM165" s="4">
         <v>0</v>
@@ -17041,7 +17013,7 @@
       </c>
       <c r="G170" s="3"/>
       <c r="H170" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170" s="4">
         <v>0</v>
@@ -17060,7 +17032,9 @@
       <c r="O170" s="4"/>
       <c r="P170" s="3"/>
       <c r="Q170" s="3"/>
-      <c r="R170" s="3"/>
+      <c r="R170" s="3">
+        <v>2</v>
+      </c>
       <c r="S170" s="4"/>
       <c r="T170" s="3"/>
       <c r="U170" s="18"/>
@@ -17070,7 +17044,9 @@
       <c r="Y170" s="4"/>
       <c r="Z170" s="3"/>
       <c r="AA170" s="3"/>
-      <c r="AB170" s="3"/>
+      <c r="AB170" s="3">
+        <v>0</v>
+      </c>
       <c r="AC170" s="4"/>
       <c r="AD170" s="3"/>
       <c r="AE170" s="18"/>
@@ -17247,7 +17223,7 @@
       </c>
       <c r="AA172" s="3"/>
       <c r="AB172" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC172" s="4">
         <v>1</v>
@@ -17266,9 +17242,7 @@
         <v>1</v>
       </c>
       <c r="AK172" s="3"/>
-      <c r="AL172" s="3">
-        <v>1</v>
-      </c>
+      <c r="AL172" s="3"/>
       <c r="AM172" s="4">
         <v>1</v>
       </c>
@@ -17500,7 +17474,7 @@
       </c>
       <c r="G175" s="3"/>
       <c r="H175" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" s="4">
         <v>1</v>
@@ -17521,9 +17495,7 @@
         <v>-1</v>
       </c>
       <c r="Q175" s="3"/>
-      <c r="R175" s="3">
-        <v>-1</v>
-      </c>
+      <c r="R175" s="3"/>
       <c r="S175" s="4">
         <v>-1</v>
       </c>
@@ -17541,9 +17513,7 @@
         <v>1</v>
       </c>
       <c r="AA175" s="3"/>
-      <c r="AB175" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB175" s="3"/>
       <c r="AC175" s="4">
         <v>1</v>
       </c>
@@ -17559,9 +17529,7 @@
         <v>1</v>
       </c>
       <c r="AK175" s="3"/>
-      <c r="AL175" s="3">
-        <v>0</v>
-      </c>
+      <c r="AL175" s="3"/>
       <c r="AM175" s="4">
         <v>0</v>
       </c>
@@ -17844,7 +17812,7 @@
       </c>
       <c r="G179" s="3"/>
       <c r="H179" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" s="4">
         <v>1</v>
@@ -17865,9 +17833,7 @@
         <v>-1</v>
       </c>
       <c r="Q179" s="3"/>
-      <c r="R179" s="3">
-        <v>-1</v>
-      </c>
+      <c r="R179" s="3"/>
       <c r="S179" s="4">
         <v>-1</v>
       </c>
@@ -17885,9 +17851,7 @@
         <v>1</v>
       </c>
       <c r="AA179" s="3"/>
-      <c r="AB179" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB179" s="3"/>
       <c r="AC179" s="4">
         <v>1</v>
       </c>
@@ -17905,9 +17869,7 @@
         <v>-1</v>
       </c>
       <c r="AK179" s="3"/>
-      <c r="AL179" s="3">
-        <v>0</v>
-      </c>
+      <c r="AL179" s="3"/>
       <c r="AM179" s="4">
         <v>-1</v>
       </c>
@@ -18040,7 +18002,7 @@
       </c>
       <c r="G181" s="3"/>
       <c r="H181" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" s="4">
         <v>1</v>
@@ -18061,14 +18023,12 @@
         <v>0</v>
       </c>
       <c r="Q181" s="3"/>
-      <c r="R181" s="3">
-        <v>2</v>
-      </c>
+      <c r="R181" s="3"/>
       <c r="S181" s="4">
         <v>2</v>
       </c>
       <c r="T181" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U181" s="18">
         <v>2</v>
@@ -18079,9 +18039,7 @@
       </c>
       <c r="Z181" s="3"/>
       <c r="AA181" s="3"/>
-      <c r="AB181" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB181" s="3"/>
       <c r="AC181" s="4">
         <v>1</v>
       </c>
@@ -18097,9 +18055,7 @@
       </c>
       <c r="AJ181" s="3"/>
       <c r="AK181" s="3"/>
-      <c r="AL181" s="3">
-        <v>1</v>
-      </c>
+      <c r="AL181" s="3"/>
       <c r="AM181" s="4">
         <v>1</v>
       </c>
@@ -18345,7 +18301,7 @@
       </c>
       <c r="Q184" s="3"/>
       <c r="R184" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S184" s="4">
         <v>-1</v>
@@ -18391,7 +18347,7 @@
         <v>0</v>
       </c>
       <c r="AN184" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO184" s="18">
         <v>0</v>
@@ -18442,7 +18398,7 @@
       </c>
       <c r="Q185" s="3"/>
       <c r="R185" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S185" s="4">
         <v>2</v>
@@ -18464,7 +18420,7 @@
       </c>
       <c r="AA185" s="3"/>
       <c r="AB185" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC185" s="4">
         <v>1</v>
@@ -18481,9 +18437,7 @@
         <v>1</v>
       </c>
       <c r="AK185" s="3"/>
-      <c r="AL185" s="3">
-        <v>1</v>
-      </c>
+      <c r="AL185" s="3"/>
       <c r="AM185" s="4">
         <v>1</v>
       </c>
@@ -18771,7 +18725,7 @@
         <v>0</v>
       </c>
       <c r="AN188" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO188" s="18">
         <v>0</v>
@@ -18887,7 +18841,7 @@
       </c>
       <c r="G190" s="3"/>
       <c r="H190" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" s="4">
         <v>1</v>
@@ -18908,9 +18862,7 @@
         <v>-1</v>
       </c>
       <c r="Q190" s="3"/>
-      <c r="R190" s="3">
-        <v>0</v>
-      </c>
+      <c r="R190" s="3"/>
       <c r="S190" s="4">
         <v>0</v>
       </c>
@@ -18928,9 +18880,7 @@
         <v>0</v>
       </c>
       <c r="AA190" s="3"/>
-      <c r="AB190" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB190" s="3"/>
       <c r="AC190" s="4">
         <v>1</v>
       </c>
@@ -18946,9 +18896,7 @@
       </c>
       <c r="AJ190" s="3"/>
       <c r="AK190" s="3"/>
-      <c r="AL190" s="3">
-        <v>0</v>
-      </c>
+      <c r="AL190" s="3"/>
       <c r="AM190" s="4">
         <v>0</v>
       </c>
@@ -19049,7 +18997,7 @@
         <v>1</v>
       </c>
       <c r="AM191" s="4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AN191" s="3">
         <v>1</v>
@@ -19202,7 +19150,7 @@
       </c>
       <c r="Q193" s="3"/>
       <c r="R193" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S193" s="4">
         <v>1</v>
@@ -19271,7 +19219,7 @@
         <v>1</v>
       </c>
       <c r="J194" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K194" s="18">
         <v>1</v>
@@ -19292,9 +19240,7 @@
       <c r="S194" s="4">
         <v>2</v>
       </c>
-      <c r="T194" s="3">
-        <v>2</v>
-      </c>
+      <c r="T194" s="3"/>
       <c r="U194" s="18">
         <v>2</v>
       </c>
@@ -19312,9 +19258,7 @@
       <c r="AC194" s="4">
         <v>1</v>
       </c>
-      <c r="AD194" s="3">
-        <v>1</v>
-      </c>
+      <c r="AD194" s="3"/>
       <c r="AE194" s="18">
         <v>1</v>
       </c>
@@ -19330,11 +19274,9 @@
         <v>0</v>
       </c>
       <c r="AM194" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN194" s="3">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AN194" s="3"/>
       <c r="AO194" s="18">
         <v>0</v>
       </c>
@@ -19710,7 +19652,7 @@
         <v>0</v>
       </c>
       <c r="I200" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J200" s="3">
         <v>0</v>
@@ -19727,7 +19669,9 @@
       <c r="P200" s="3"/>
       <c r="Q200" s="3"/>
       <c r="R200" s="3"/>
-      <c r="S200" s="4"/>
+      <c r="S200" s="4">
+        <v>2</v>
+      </c>
       <c r="T200" s="3"/>
       <c r="U200" s="18"/>
       <c r="X200" s="3"/>
@@ -19736,15 +19680,11 @@
       </c>
       <c r="Z200" s="3"/>
       <c r="AA200" s="3"/>
-      <c r="AB200" s="3">
-        <v>0</v>
-      </c>
+      <c r="AB200" s="3"/>
       <c r="AC200" s="4">
         <v>0</v>
       </c>
-      <c r="AD200" s="3">
-        <v>0</v>
-      </c>
+      <c r="AD200" s="3"/>
       <c r="AE200" s="18"/>
       <c r="AH200" s="3"/>
       <c r="AI200" s="4"/>
@@ -19782,7 +19722,7 @@
         <v>1</v>
       </c>
       <c r="J201" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K201" s="18">
         <v>1</v>
@@ -19801,9 +19741,7 @@
       <c r="S201" s="4">
         <v>2</v>
       </c>
-      <c r="T201" s="3">
-        <v>2</v>
-      </c>
+      <c r="T201" s="3"/>
       <c r="U201" s="18">
         <v>2</v>
       </c>
@@ -19819,9 +19757,7 @@
       <c r="AC201" s="4">
         <v>0</v>
       </c>
-      <c r="AD201" s="3">
-        <v>0</v>
-      </c>
+      <c r="AD201" s="3"/>
       <c r="AE201" s="18">
         <v>0</v>
       </c>
